--- a/Planeación del proyecto/Site_CulturaDeportes001_Matriz-de-comunicación.xlsx
+++ b/Planeación del proyecto/Site_CulturaDeportes001_Matriz-de-comunicación.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PORTAFOLIO TERCER CUATRIMESTRE ING\Admiistración de proyectos II\PARCIAL III\01_PixelDesign\Proyecto\Planeación del proyecto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="15330" windowHeight="5085"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="15330" windowHeight="5085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="2" r:id="rId1"/>
     <sheet name="Cambios" sheetId="3" r:id="rId2"/>
     <sheet name="Matriz de comunicación" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="103">
   <si>
     <t>Matriz de comunicación</t>
   </si>
@@ -167,12 +172,6 @@
     <t>Francisco Bautista</t>
   </si>
   <si>
-    <t xml:space="preserve">Requerimientos funcionales </t>
-  </si>
-  <si>
-    <t>Requerimientos no funcionales</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -299,9 +298,6 @@
     <t>Asegurador de la calidad</t>
   </si>
   <si>
-    <t>Costos</t>
-  </si>
-  <si>
     <t>Impres</t>
   </si>
   <si>
@@ -336,6 +332,9 @@
   </si>
   <si>
     <t>1.1</t>
+  </si>
+  <si>
+    <t>Realizar pruebas unitarias a cada modulo</t>
   </si>
 </sst>
 </file>
@@ -619,6 +618,10 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -639,10 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1081,19 +1080,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="29"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1114,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1125,7 +1124,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1147,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1181,10 +1180,10 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
@@ -1202,7 +1201,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="13">
         <v>42515</v>
@@ -1213,7 +1212,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="13">
         <v>42515</v>
@@ -1237,10 +1236,10 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
@@ -1258,7 +1257,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13">
         <v>42517</v>
@@ -1269,7 +1268,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="13">
         <v>42517</v>
@@ -1279,8 +1278,8 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
@@ -1293,12 +1292,12 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1320,14 +1319,14 @@
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="27">
         <v>42516</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1376,20 +1375,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+      <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1430,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1466,12 +1465,12 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -1553,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB19"/>
+  <dimension ref="A1:AZ19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:AY4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,16 +1564,16 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:52" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>39</v>
@@ -1586,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>41</v>
@@ -1598,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>48</v>
@@ -1607,109 +1606,109 @@
         <v>49</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="W1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>78</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="AF1" s="21" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="AR1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="AS1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="AU1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="AW1" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="AX1" s="21" t="s">
         <v>65</v>
@@ -1720,14 +1719,8 @@
       <c r="AZ1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BA1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB1" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -1777,27 +1770,27 @@
       <c r="Q2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="U2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="23"/>
       <c r="X2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Y2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="23"/>
+      <c r="Z2" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="AA2" s="23" t="s">
         <v>14</v>
       </c>
@@ -1849,9 +1842,7 @@
       <c r="AQ2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AR2" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="AR2" s="23"/>
       <c r="AS2" s="23" t="s">
         <v>14</v>
       </c>
@@ -1876,14 +1867,8 @@
       <c r="AZ2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BA2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB2" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>44</v>
       </c>
@@ -1935,30 +1920,28 @@
       <c r="AQ3" s="10"/>
       <c r="AR3" s="10"/>
       <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
+      <c r="AT3" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AU3" s="10"/>
       <c r="AV3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -1973,10 +1956,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>15</v>
@@ -1985,15 +1968,23 @@
         <v>15</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="Q4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2013,35 +2004,83 @@
         <v>15</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
+      <c r="Y4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="AW4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2054,16 +2093,10 @@
       <c r="AZ4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>3</v>
@@ -2108,10 +2141,10 @@
         <v>15</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>17</v>
@@ -2123,17 +2156,11 @@
         <v>17</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -2156,26 +2183,24 @@
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="AU5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW5" s="10"/>
       <c r="AX5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY5" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AZ5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>47</v>
       </c>
@@ -2208,25 +2233,27 @@
         <v>17</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="U6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="X6" s="10" t="s">
         <v>15</v>
       </c>
@@ -2248,15 +2275,9 @@
       <c r="AD6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
@@ -2270,20 +2291,18 @@
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
+      <c r="AU6" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AV6" s="10"/>
-      <c r="AW6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AY6" s="10"/>
-      <c r="AZ6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="10"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>47</v>
       </c>
@@ -2316,27 +2335,29 @@
         <v>17</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="U7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="X7" s="10" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="10" t="s">
         <v>17</v>
@@ -2357,13 +2378,13 @@
         <v>17</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="10" t="s">
         <v>15</v>
@@ -2395,36 +2416,28 @@
       <c r="AQ7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AR7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
       <c r="AT7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX7" s="10"/>
+      <c r="AU7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AY7" s="10"/>
-      <c r="AZ7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="10"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>17</v>
@@ -2449,18 +2462,18 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="T8" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
@@ -2484,25 +2497,23 @@
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
+      <c r="AU8" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AV8" s="10"/>
-      <c r="AW8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AY8" s="10"/>
-      <c r="AZ8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="10"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>17</v>
@@ -2531,28 +2542,34 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="P9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
+      <c r="AE9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="AH9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2593,27 +2610,21 @@
         <v>17</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AZ9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
@@ -2645,11 +2656,11 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -2675,31 +2686,31 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
+      <c r="AR10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="10" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AV10" s="10"/>
-      <c r="AW10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="AY10" s="10"/>
-      <c r="AZ10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="AZ10" s="10"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="32"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
@@ -2723,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>10</v>
       </c>
